--- a/aggregated_output/CHENNAI_aggregated.xlsx
+++ b/aggregated_output/CHENNAI_aggregated.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The list of issues is a common feature in repositories for tracking bugs, tasks, and enhancements. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the list of issues as a necessary step toward solving an issue. The "Issues" tab is clearly visible in the left sidebar, making it an obvious next step.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or link that directly points to a list of issues. ABI, who prefers familiar methods and comprehensive information, might not immediately think to look here for a list of issues. Additionally, ABI's low computer self-efficacy might make them hesitant to explore unfamiliar sections without clear guidance.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a repository with various files and folders, which is a common place to look for issues in a project. ABI, being motivated to accomplish their task, would likely consider finding the list of issues as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to explore the repository to gather all relevant information, including issues.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository view with files and directories, which is not directly related to finding a list of issues. ABI might not immediately think of this as a step toward finding issues because the page does not prominently feature or mention issues. ABI's motivation to find issues and her comprehensive information processing style would lead her to look for a more relevant section or link explicitly labeled for issues. Additionally, ABI's low computer self-efficacy might make her hesitant to explore unrelated sections without clear guidance.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a repository with various files and folders, which is a common place to look for issues in a project. ABI, being motivated to accomplish their task, would likely consider finding the list of issues as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to explore the repository to gather all relevant information, including the list of issues.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or link to a list of issues. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding the list of issues. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to navigate next without explicit guidance.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The list of issues is a common feature in repositories, and ABI is motivated to find and solve issues. The "Issues" tab is clearly visible in the left sidebar, which aligns with ABI's comprehensive information processing style, as it is a logical step to look for issues in a repository.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. ABI is looking to find a list of issues, and this page does not explicitly indicate where to find issues. Given ABI's motivation to accomplish tasks efficiently and their comprehensive information processing style, they would likely not consider this page as a step toward finding the list of issues. Additionally, ABI's low computer self-efficacy means they might not feel confident navigating through unfamiliar sections without clear guidance.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a repository with various files and folders, which is a common place to look for issues in a project. ABI, being motivated to accomplish their task, would likely consider finding the list of issues as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to explore the repository to gather all relevant information, including issues.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a repository file list, which does not directly indicate where to find the list of issues. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think to look here for issues. The page does not provide clear guidance or links to the issues section, which could lead to confusion and hesitation due to ABI's low computer self-efficacy and risk-averse nature.</t>
         </is>
       </c>
     </row>
@@ -474,36 +474,36 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Issues" tab is clearly labeled and visible in the left sidebar, making it straightforward for Abi to identify and click on it. Given her motivation to accomplish tasks and her comprehensive information processing style, she would likely understand that clicking on "Issues" will lead her to the list of issues. The page layout is clear and intuitive, providing a good user experience for Abi to take this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly shows a list of issues under the "Issues" section in the sidebar. The "Issues" tab is highlighted, and the list of issues is prominently displayed. This aligns with ABI's motivation to find a list of issues and their comprehensive information processing style, as the information is clearly presented and easy to understand.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" tab is clearly visible on the left sidebar, and the list of issues is prominently displayed on the page. ABI, motivated to find an issue to solve, would recognize that clicking on "Issues" and then "List" is a logical step. The page layout is straightforward, and the action required is clear, aligning with ABI's comprehensive information processing style.</t>
+Why: The page clearly shows a list of issues with the "Issues" tab highlighted on the left sidebar. This aligns with ABI's motivation to find issues to solve. The page layout is straightforward, and the "Issues" tab is prominently displayed, making it easy for ABI to understand that clicking on "Issues" will lead to the list of issues. This clear labeling and organization support ABI's comprehensive information processing style, as it provides a direct path to the desired information.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" tab is clearly visible on the left sidebar, and the list of issues is prominently displayed on the page. ABI, motivated to find an issue to solve, would recognize that clicking on "Issues" and then viewing the list is a logical step. The page layout is straightforward and aligns with ABI's comprehensive information processing style, making it easy for them to understand what to do next.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly shows a list of issues, and the "Issues" tab is prominently displayed in the left-hand navigation menu. This aligns with Abi's comprehensive information processing style, as she can see the relevant information directly. Additionally, the action of hovering over "Issues" and clicking on "List" is straightforward and does not require any unfamiliar technical knowledge, which suits Abi's preference for process-oriented learning. The page provides a clear path to the list of issues, making it likely that Abi will know what to do at this step.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" tab is clearly visible in the left sidebar, and the list of issues is prominently displayed on the page. This aligns with ABI's motivation to find and solve issues and her comprehensive information processing style. The page provides a clear and straightforward way to access the list of issues, making it easy for ABI to know what to do at this step.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly shows a list of issues under the "Issues" section in the left sidebar. The "Issues" tab is prominently displayed and labeled, making it easy for ABI to identify and understand that clicking on "Issues" will lead to the list of issues. This aligns with ABI's comprehensive information processing style and preference for clear, step-by-step processes. The page provides a straightforward path to the desired information, which should make ABI feel confident in taking this action.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" tab is clearly visible on the left sidebar, and the list of issues is prominently displayed on the page. ABI, motivated to find an issue to solve, would recognize that clicking on "Issues" and then "List" is a logical step to view the list of issues. The page layout is straightforward and provides clear navigation, aligning with ABI's comprehensive information processing style.</t>
+Why: The page clearly shows the "Issues" section in the left-hand navigation menu, which is a familiar and standard location for such a feature in many project management and repository tools. The list of issues is prominently displayed, making it straightforward for ABI to understand that clicking on "Issues" will lead to the list of issues. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as the page provides clear and relevant information.</t>
         </is>
       </c>
     </row>
@@ -511,36 +511,36 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on the "Issues" tab, Abi will land on a page that clearly lists the issues, which aligns with her goal of finding an issue to solve. The page is well-organized, with issues categorized and labeled, making it easy for her to see that she has made progress toward her goal. The comprehensive list of issues provides all the information she needs to proceed with selecting an issue to solve, which aligns with her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Issues" and landing on this page, ABI will see a clear list of issues, which directly aligns with their goal of finding an issue to solve. The page provides comprehensive information about each issue, including titles, statuses, and timestamps, which will help ABI feel confident that they are making progress toward their goal. The clear presentation of information supports ABI's comprehensive information processing style.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and "List," ABI will land on a page that clearly displays a list of issues. This page provides a comprehensive view of the issues, including their titles, statuses, and other relevant details. This aligns with ABI's motivation to find an issue to solve and their comprehensive information processing style. The clear presentation of information will help ABI understand that they are making progress toward their goal and provide all the necessary information to proceed.</t>
+Why: After clicking on "Issues" and landing on this page, ABI will see a clear list of issues, which directly aligns with her goal of finding an issue to solve. The page is well-organized, with issues listed along with their status, titles, and other relevant details. This provides ABI with all the necessary information to understand that she is making progress toward her goal. The clear presentation of information supports ABI's comprehensive information processing style, allowing her to gather all the details she needs to proceed.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues," ABI will land on a page that clearly lists various issues, complete with titles, labels, and statuses. This page provides a comprehensive view of the issues, which aligns with ABI's information processing style. The clear presentation of the issues will make ABI feel confident that they are making progress toward their goal of finding an issue to solve. The detailed information available on the page will help ABI gather all the necessary information to proceed.</t>
+Why: After clicking on "Issues" and landing on this page, Abi will see a clear list of issues, which directly aligns with her goal of finding an issue to solve. The page is well-organized, showing open, closed, and all issues, which helps Abi understand that she is making progress toward her goal. The comprehensive list of issues with relevant details (such as titles, status, and dates) provides all the information she needs to proceed, fitting her comprehensive information processing style. This will reassure Abi that she did the right thing and is on the right track.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Issues" tab, ABI will land on a page that clearly displays a list of issues. This page provides comprehensive information about each issue, including titles, status (open or closed), and timestamps. This aligns with ABI's motivation to find and solve issues and her comprehensive information processing style, as she will have all the necessary information to proceed with selecting an issue to solve. The clear layout and detailed information will help ABI know that she is making progress toward her goal.</t>
+Why: After clicking on "Issues," ABI will land on a page that clearly lists the issues, which is exactly what they are looking for. The page is well-organized, with issues displayed in a list format, including relevant details such as titles, status (open/closed), and dates. This clear presentation aligns with ABI's motivation to accomplish tasks efficiently and their comprehensive information processing style. ABI will know they are making progress toward their goal of finding an issue to solve and will have all the necessary information to proceed.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and "List," ABI will land on a page that clearly displays a list of issues. This page provides all the necessary information, such as issue titles, statuses, and timestamps, which are essential for ABI to find an issue to solve. The clear layout and comprehensive information align with ABI's motivation to accomplish their task and their comprehensive information processing style. ABI will know they are making progress toward their goal as the list of issues is prominently displayed, confirming they are on the right track.</t>
+Why: After clicking on "Issues," ABI will land on a page that clearly lists the issues, which is the intended goal. The page provides a comprehensive list of issues with relevant details such as titles, status (open/closed), and timestamps. This clear presentation of information aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring that ABI knows they are making progress toward their goal and has all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -548,36 +548,36 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Finding the most appropriate issue to solve is a logical next step after locating the list of issues. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would naturally consider evaluating the issues to determine which one is most suitable for her to work on. The page provides a clear list of issues with relevant details, which supports her in making an informed decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page displays a list of issues with detailed information such as titles, statuses, and timestamps. ABI, who is motivated to find an issue to solve, will recognize that reviewing this list is a necessary step toward identifying the most appropriate issue to work on. The comprehensive presentation of information aligns with ABI's information processing style, making it clear that this step is part of achieving the overall use case.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to find an issue to solve, and identifying the most appropriate issue is a logical step in this process. The page provides a list of issues with relevant details, which aligns with ABI's comprehensive information processing style. ABI would recognize that evaluating the issues to find the most suitable one is necessary to achieve their overall goal.</t>
+Why: The page displays a list of issues, which is a necessary step toward finding the most appropriate issue to solve. ABI's motivation to find an issue to work on and her comprehensive information processing style would lead her to review the list of issues to identify the most suitable one. The page provides relevant details such as issue titles, statuses, and dates, which will help ABI in making an informed decision. Therefore, ABI would consider this a step toward achieving her overall use case.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to find an issue to solve, and identifying the most appropriate issue is a logical step in this process. The page provides a list of issues with relevant details such as titles, labels, and statuses, which aligns with ABI's comprehensive information processing style. This will help ABI in evaluating and selecting the most appropriate issue to work on, making it a clear step toward achieving the overall use case.</t>
+Why: The page displays a list of issues with relevant details such as titles, status, and dates, which directly aligns with Abi's goal of finding an issue to solve. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would consider reviewing this list of issues as a necessary step toward finding the most appropriate issue to solve. The clear organization and presentation of information support her in making progress toward her overall use case.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Finding the most appropriate issue to solve is a logical and necessary step toward achieving the overall use case of solving an issue. ABI is motivated to find and solve issues, and her comprehensive information processing style means she will consider this step essential to ensure she selects an issue that is suitable for her to work on. The page provides a clear list of issues with relevant details, which will help ABI in making an informed decision.</t>
+Why: The page displays a list of issues, which is a logical next step for ABI to find the most appropriate issue to solve. ABI is motivated to accomplish their task efficiently, and this page provides a clear and organized list of issues, including relevant details such as titles, status, and dates. This aligns with ABI's comprehensive information processing style, as they can review the list and gather the necessary information to identify the most appropriate issue to solve. Therefore, ABI would consider this a step toward achieving the overall use case.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to find an issue to solve, and identifying the most appropriate issue is a logical and necessary step in this process. The page displaying the list of issues provides detailed information such as titles, statuses, and timestamps, which are essential for ABI to evaluate and select the most suitable issue. This aligns with ABI's comprehensive information processing style, as they would need to gather and assess all relevant information to make an informed decision.</t>
+Why: The page displays a list of issues with relevant details such as titles, status, and timestamps, which are essential for ABI to find the most appropriate issue to solve. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as it provides the necessary information to evaluate and select an issue. Therefore, ABI would consider this a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -585,73 +585,73 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly lists the issues with relevant details such as titles, labels, and dates, making it straightforward for Abi to read through them. Given her motivation to accomplish tasks and her comprehensive information processing style, she will know that reading through the issues is the next logical step to find an appropriate one to solve. The layout and organization of the page support her in this action, providing the necessary information in an accessible manner.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists issues with relevant details such as titles, statuses, and timestamps, making it straightforward for ABI to read through and identify an appropriate issue to solve. This aligns with ABI's motivation to find an issue and their comprehensive information processing style, as the information is well-organized and easy to understand. The page provides enough context for ABI to know what to do at this step.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with their titles, statuses, and other relevant details. ABI, motivated to find an appropriate issue to solve, would understand that reading through the list is a necessary step. The layout is straightforward and provides the information needed to evaluate each issue, aligning with ABI's comprehensive information processing style. This makes it clear for ABI to know what to do at this step.</t>
+Why: The page clearly lists issues with relevant details such as titles, statuses, and dates, which are essential for ABI to determine the most appropriate issue to solve. ABI's motivation to find an issue and her comprehensive information processing style will guide her to read through the list to gather the necessary information. The layout and organization of the page make it straightforward for ABI to understand what to do at this step, ensuring she can effectively read through the issues to find a suitable one.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with titles, labels, and statuses, making it straightforward for ABI to read through and evaluate them. ABI is motivated to find an appropriate issue to solve, and the comprehensive information provided on the page aligns with their information processing style. The layout and details are sufficient for ABI to understand what to do at this step and to take the action of reading through the issues to find the most appropriate one.</t>
+Why: The page is well-organized and displays a list of issues with relevant details such as titles, status, and dates. This aligns with Abi's motivation to find an issue to solve and her comprehensive information processing style. The clear presentation of information makes it easy for Abi to read through the issues and determine if there is an appropriate one to solve. The page provides all the necessary information for Abi to take this action confidently.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with relevant details such as titles, status, and timestamps. ABI is motivated to find and solve issues, and her comprehensive information processing style means she will read through the issues to find the most appropriate one. The layout and information provided on the page are sufficient for ABI to understand what to do at this step and to take the action of reading through the issues.</t>
+Why: The page is well-organized and clearly lists the issues with relevant details such as titles, status (open/closed), and dates. This layout makes it straightforward for ABI to read through the issues and identify an appropriate one to solve. ABI's motivation to accomplish tasks efficiently and their comprehensive information processing style will guide them to read through the list methodically. The page provides all the necessary information in a clear and accessible manner, making it easy for ABI to take this action.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with relevant details such as titles, statuses, and timestamps. ABI, motivated to find an appropriate issue to solve, will understand that reading through these issues is a necessary step. The layout is straightforward and provides comprehensive information, which aligns with ABI's information processing style. This will help ABI feel confident in knowing what to do at this step and that the page is sufficient for taking this action.</t>
+Why: The page provides a clear and organized list of issues, each with a title, status, and timestamp. This layout makes it straightforward for ABI to read through the issues and determine if there is an appropriate one to solve. The information is presented in a way that aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, making it easy for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: While the page provides a list of issues, it may not give Abi all the information she needs to determine the most appropriate issue to solve. The titles and labels provide some context, but Abi might need more detailed descriptions or additional information to make an informed decision. Given her low computer self-efficacy, she might feel uncertain about whether she has enough information to proceed. Additionally, her comprehensive information processing style means she prefers to gather all relevant details before making a decision, and the current page might not fully satisfy that need.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: If ABI reads through the issues on this page, they will see detailed information about each issue, including titles, statuses, and timestamps. This will help ABI determine if they are making progress toward finding an appropriate issue to solve. The clear and comprehensive presentation of information ensures that ABI will feel confident they are on the right track and have the necessary information to make an informed decision.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and detailed list of issues, including their titles, statuses, and other relevant information. ABI, motivated to find an appropriate issue to solve, will recognize that reading through the issues is the correct action. The comprehensive information presented aligns with ABI's information processing style, allowing them to understand that they are making progress toward their goal and providing all the necessary details to make an informed decision.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of issues, it may not give ABI all the information she needs to determine the most appropriate issue to solve. The titles and statuses of the issues are visible, but ABI might need more detailed descriptions or context to make an informed decision. Given ABI's comprehensive information processing style, she would prefer to have all relevant details readily available. Additionally, ABI's low computer self-efficacy might make her hesitant to click on each issue to gather more information, as she might not feel confident navigating through multiple pages. Therefore, she might not feel certain that she is making progress toward her goal with the information provided on this page alone.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, the information presented may not be comprehensive enough for ABI to determine if they have made the right choice. ABI's comprehensive information processing style requires detailed information to feel confident in their progress. The titles and labels alone may not provide enough context for ABI to fully understand the issues without additional details. Additionally, ABI's low computer self-efficacy might make them doubt if they have selected the most appropriate issue without more explicit guidance or detailed descriptions.</t>
+Why: While the page does provide a list of issues, it may not give Abi all the information she needs to determine if she is making progress toward her goal. The titles and statuses of the issues are visible, but Abi might need more detailed information about each issue to decide if it is appropriate for her to solve. Given her comprehensive information processing style, she would likely want to read the full descriptions and any associated comments or discussions. Additionally, due to her low computer self-efficacy, she might feel uncertain about whether she has enough information to proceed without more detailed guidance. Therefore, she might not feel confident that she is making progress toward her goal with the information currently presented.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, the information might not be comprehensive enough for ABI to determine if she is making progress toward her goal. ABI's comprehensive information processing style means she needs detailed information to feel confident in her actions. The issue titles and brief descriptions may not provide enough context for ABI to fully understand the scope and requirements of each issue. Additionally, ABI's low computer self-efficacy might make her uncertain if she has chosen the right issue without more detailed guidance or information.</t>
+Why: While the page does list issues with titles, status, and dates, it may not provide enough detailed information for ABI to determine if an issue is appropriate to solve. ABI's comprehensive information processing style means they need detailed information to make informed decisions. The titles and brief descriptions might not be sufficient for ABI to feel confident that they have all the necessary information. Additionally, ABI's low computer self-efficacy might make them hesitant to proceed without more detailed guidance or information. Therefore, ABI might not feel they have made sufficient progress toward their goal or have all the information they need.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it may not give ABI all the information needed to determine the most appropriate issue to solve. ABI's comprehensive information processing style means they need detailed information to make an informed decision. The titles and brief descriptions may not be sufficient for ABI to feel confident they are making progress toward their goal. Additionally, ABI's low computer self-efficacy might make them uncertain if they have gathered enough information to proceed. They might need more detailed descriptions or additional context to feel assured they are on the right track.</t>
+Why: While the page provides a list of issues, the titles alone may not give ABI enough detailed information to determine if an issue is appropriate to solve. ABI, who prefers comprehensive information, might need to click on each issue to read the full details, which could be overwhelming and time-consuming. Additionally, ABI's low computer self-efficacy might make them hesitant to click on multiple issues without clear guidance. Therefore, ABI might not feel confident that they are making progress toward their goal or have all the information they need.</t>
         </is>
       </c>
     </row>
@@ -659,36 +659,36 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly lists the issues with clickable titles, making it intuitive for Abi to click on an issue to get more details. Given her motivation to accomplish tasks and her comprehensive information processing style, she will understand that clicking on an issue title, such as issue #136, will provide her with the detailed information she needs to determine if it is appropriate to solve. The layout and organization of the page support her in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. The issue numbers and titles are prominently displayed, and clicking on them is a standard action to get more information. This aligns with ABI's motivation to find an appropriate issue to solve and their comprehensive information processing style, as they will expect to find more detailed information by clicking on the issue.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with their respective numbers, titles, and statuses. ABI, motivated to find an appropriate issue to solve, would understand that clicking on an issue number (such as #136) is a logical step to get more detailed information about that specific issue. The layout and presentation of the issues are straightforward, making it clear for ABI to know what to do at this step. This aligns with ABI's comprehensive information processing style, as they would want to gather detailed information about the issue before deciding to solve it.</t>
+Why: The page clearly lists the issues with their respective numbers, titles, and statuses. ABI's motivation to find an appropriate issue to solve and her comprehensive information processing style will guide her to click on an issue to gather more details. The issue numbers are prominently displayed, making it easy for ABI to identify and click on issue #136. The page layout and organization provide a clear path for ABI to follow, ensuring she knows what to do at this step.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. ABI is motivated to find an appropriate issue to solve, and clicking on an issue to read more about it is a logical step in this process. The layout and presentation of the issues align with ABI's comprehensive information processing style, making it clear that clicking on an issue will provide more information.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly lists the issues with their respective numbers, titles, and statuses. Given Abi's comprehensive information processing style, she would likely understand that clicking on an issue number (such as #136) will provide more detailed information about that specific issue. The action of clicking on an issue to get more information is straightforward and aligns with her process-oriented learning style. The page is well-organized and provides a clear path for Abi to follow, making it likely that she will know what to do at this step.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with clickable links, including issue #136. ABI is motivated to find and solve issues, and her comprehensive information processing style means she will likely click on an issue to get more detailed information. The layout and information provided on the page are sufficient for ABI to understand that clicking on an issue will provide more details, making it clear what to do at this step.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. The issue numbers and titles are prominently displayed, and it is a common practice in issue tracking systems to click on an issue to view more information. This aligns with ABI's comprehensive information processing style, as they would naturally want to gather more information about a specific issue. The page design supports ABI's process-oriented learning style by providing a clear and straightforward way to access more detailed information about each issue.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues with their respective numbers, titles, and brief descriptions. ABI, motivated to find an appropriate issue to solve, will understand that clicking on an issue number (such as #136) will provide more detailed information about that issue. The layout is straightforward, and the action of clicking on an issue to get more details aligns with ABI's comprehensive information processing style. This step is intuitive and logical for ABI to take in order to gather more information.</t>
+Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. The issue numbers and titles are prominently displayed, and clicking on an issue is a standard action in such interfaces. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as they will understand that clicking on an issue will provide more detailed information necessary to determine if it is appropriate to solve.</t>
         </is>
       </c>
     </row>
@@ -696,36 +696,36 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on issue #136, Abi will land on a detailed page that provides comprehensive information about the issue, including the steps needed to resolve it, relevant files, and additional context. This aligns with her motivation to accomplish tasks and her comprehensive information processing style. The detailed description and activity log will help her understand that she is making progress toward her goal and provide her with the necessary information to determine if this is the most appropriate issue to solve.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's motivation to find an appropriate issue to solve and their comprehensive information processing style. The clear and organized presentation of information will help ABI understand that they are making progress toward their goal and have all the necessary details to proceed.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI lands on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's motivation to find an appropriate issue to solve and their comprehensive information processing style. The clear and detailed information will help ABI understand that they are making progress toward their goal and provide all the necessary details to proceed with solving the issue.</t>
+Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the title, description, steps to reproduce, and activity history. This detailed view aligns with ABI's motivation to find an appropriate issue to solve and her comprehensive information processing style. The page layout is clear and organized, making it easy for ABI to understand that she is making progress toward her goal and has all the information she needs to evaluate the issue.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This aligns with ABI's comprehensive information processing style, allowing them to gather all the necessary details to understand the issue fully. The clear and detailed presentation will make ABI feel confident that they are making progress toward their goal of finding an appropriate issue to solve.</t>
+Why: After clicking on issue #136, Abi lands on a detailed page that provides comprehensive information about the issue, including the title, description, steps to reproduce, and activity history. This aligns with Abi's motivation to find an issue to solve and her comprehensive information processing style. The detailed information helps Abi understand the issue fully and confirms that she is making progress toward her goal. The page layout is clear and organized, making it easy for Abi to see that she did the right thing and has all the information she needs to proceed.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including the specific tasks required to resolve it. This aligns with ABI's motivation to find and solve issues and her comprehensive information processing style, as she will have all the necessary details to understand the issue and determine if it is appropriate for her to solve. The clear and detailed layout of the issue page will help ABI know that she is making progress toward her goal and has all the information she needs.</t>
+Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's comprehensive information processing style, allowing them to gather all necessary information to determine if this is the most appropriate issue to solve. The clear presentation of information and the logical structure of the page will help ABI feel confident that they are making progress toward their goal and have all the information they need.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including the specific tasks required to resolve it, relevant files, and additional context. This detailed information aligns with ABI's comprehensive information processing style, allowing them to gather all necessary details to determine if this is the most appropriate issue to solve. The clear presentation of information will help ABI feel confident that they are making progress toward their goal and have done the right thing by clicking on the issue.</t>
+Why: After clicking on issue #136, ABI lands on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, ensuring that ABI knows they are making progress toward their goal and has all the necessary information to determine if this issue is appropriate to solve.</t>
         </is>
       </c>
     </row>
